--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="H2">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="I2">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="J2">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N2">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O2">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P2">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q2">
-        <v>76.43032113472174</v>
+        <v>86.96598273688656</v>
       </c>
       <c r="R2">
-        <v>76.43032113472174</v>
+        <v>782.693844631979</v>
       </c>
       <c r="S2">
-        <v>0.01777804962739349</v>
+        <v>0.01867905149923337</v>
       </c>
       <c r="T2">
-        <v>0.01777804962739349</v>
+        <v>0.01867905149923337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="H3">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="I3">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="J3">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N3">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O3">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P3">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q3">
-        <v>810.4793600955957</v>
+        <v>883.068723719147</v>
       </c>
       <c r="R3">
-        <v>810.4793600955957</v>
+        <v>7947.618513472323</v>
       </c>
       <c r="S3">
-        <v>0.1885212841165446</v>
+        <v>0.1896705544927504</v>
       </c>
       <c r="T3">
-        <v>0.1885212841165446</v>
+        <v>0.1896705544927504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="H4">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="I4">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="J4">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N4">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O4">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P4">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q4">
-        <v>2.874894560686337</v>
+        <v>3.358696048684668</v>
       </c>
       <c r="R4">
-        <v>2.874894560686337</v>
+        <v>30.228264438162</v>
       </c>
       <c r="S4">
-        <v>0.0006687139006431099</v>
+        <v>0.0007213999599528767</v>
       </c>
       <c r="T4">
-        <v>0.0006687139006431099</v>
+        <v>0.0007213999599528768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="H5">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="I5">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="J5">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N5">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O5">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P5">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q5">
-        <v>118.5386471282375</v>
+        <v>138.7841071799581</v>
       </c>
       <c r="R5">
-        <v>118.5386471282375</v>
+        <v>1249.056964619623</v>
       </c>
       <c r="S5">
-        <v>0.02757264290039103</v>
+        <v>0.02980884483456789</v>
       </c>
       <c r="T5">
-        <v>0.02757264290039103</v>
+        <v>0.0298088448345679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="H6">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="I6">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="J6">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N6">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O6">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P6">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q6">
-        <v>185.369142159077</v>
+        <v>196.2981632542529</v>
       </c>
       <c r="R6">
-        <v>185.369142159077</v>
+        <v>1766.683469288276</v>
       </c>
       <c r="S6">
-        <v>0.04311772814460028</v>
+        <v>0.04216204296482808</v>
       </c>
       <c r="T6">
-        <v>0.04311772814460028</v>
+        <v>0.0421620429648281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="H7">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="I7">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="J7">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N7">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O7">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P7">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q7">
-        <v>1965.684056903776</v>
+        <v>1993.247969355974</v>
       </c>
       <c r="R7">
-        <v>1965.684056903776</v>
+        <v>17939.23172420377</v>
       </c>
       <c r="S7">
-        <v>0.4572272914281367</v>
+        <v>0.4281212066905174</v>
       </c>
       <c r="T7">
-        <v>0.4572272914281367</v>
+        <v>0.4281212066905175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="H8">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="I8">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="J8">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N8">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O8">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P8">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q8">
-        <v>6.972582747269428</v>
+        <v>7.581192605858668</v>
       </c>
       <c r="R8">
-        <v>6.972582747269428</v>
+        <v>68.230733452728</v>
       </c>
       <c r="S8">
-        <v>0.001621855309145756</v>
+        <v>0.001628331936854865</v>
       </c>
       <c r="T8">
-        <v>0.001621855309145756</v>
+        <v>0.001628331936854866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="H9">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="I9">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="J9">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N9">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O9">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P9">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q9">
-        <v>287.49594407862</v>
+        <v>313.2611679986459</v>
       </c>
       <c r="R9">
-        <v>287.49594407862</v>
+        <v>2819.350511987812</v>
       </c>
       <c r="S9">
-        <v>0.06687289920573297</v>
+        <v>0.0672840265309257</v>
       </c>
       <c r="T9">
-        <v>0.06687289920573297</v>
+        <v>0.06728402653092572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="H10">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="I10">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="J10">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N10">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O10">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P10">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q10">
-        <v>12.72634808030986</v>
+        <v>14.73848963108978</v>
       </c>
       <c r="R10">
-        <v>12.72634808030986</v>
+        <v>132.646406679808</v>
       </c>
       <c r="S10">
-        <v>0.002960207995834903</v>
+        <v>0.003165617154847308</v>
       </c>
       <c r="T10">
-        <v>0.002960207995834903</v>
+        <v>0.003165617154847309</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="H11">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="I11">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="J11">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N11">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O11">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P11">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q11">
-        <v>134.9522322469685</v>
+        <v>149.6573581816604</v>
       </c>
       <c r="R11">
-        <v>134.9522322469685</v>
+        <v>1346.916223634944</v>
       </c>
       <c r="S11">
-        <v>0.03139051945084926</v>
+        <v>0.0321442639149153</v>
       </c>
       <c r="T11">
-        <v>0.03139051945084926</v>
+        <v>0.03214426391491531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="H12">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="I12">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="J12">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N12">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O12">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P12">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q12">
-        <v>0.4786962599436556</v>
+        <v>0.5692122980693334</v>
       </c>
       <c r="R12">
-        <v>0.4786962599436556</v>
+        <v>5.122910682624</v>
       </c>
       <c r="S12">
-        <v>0.0001113469855860622</v>
+        <v>0.0001222586751167057</v>
       </c>
       <c r="T12">
-        <v>0.0001113469855860622</v>
+        <v>0.0001222586751167057</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="H13">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="I13">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="J13">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N13">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O13">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P13">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q13">
-        <v>19.73776980033706</v>
+        <v>23.52032438729956</v>
       </c>
       <c r="R13">
-        <v>19.73776980033706</v>
+        <v>211.682919485696</v>
       </c>
       <c r="S13">
-        <v>0.004591097431423064</v>
+        <v>0.005051829884315196</v>
       </c>
       <c r="T13">
-        <v>0.004591097431423064</v>
+        <v>0.005051829884315197</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="H14">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="I14">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="J14">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N14">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O14">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P14">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q14">
-        <v>51.3465178883762</v>
+        <v>66.05478676209388</v>
       </c>
       <c r="R14">
-        <v>51.3465178883762</v>
+        <v>594.4930808588449</v>
       </c>
       <c r="S14">
-        <v>0.01194343985032274</v>
+        <v>0.01418762514801891</v>
       </c>
       <c r="T14">
-        <v>0.01194343985032274</v>
+        <v>0.01418762514801892</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="H15">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="I15">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="J15">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N15">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O15">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P15">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q15">
-        <v>544.4866951161176</v>
+        <v>670.7325600864123</v>
       </c>
       <c r="R15">
-        <v>544.4866951161176</v>
+        <v>6036.59304077771</v>
       </c>
       <c r="S15">
-        <v>0.126650148050108</v>
+        <v>0.144063778017341</v>
       </c>
       <c r="T15">
-        <v>0.126650148050108</v>
+        <v>0.144063778017341</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="H16">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="I16">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="J16">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N16">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O16">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P16">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q16">
-        <v>1.931377793471231</v>
+        <v>2.551088877656667</v>
       </c>
       <c r="R16">
-        <v>1.931377793471231</v>
+        <v>22.95979989891</v>
       </c>
       <c r="S16">
-        <v>0.0004492474943426427</v>
+        <v>0.0005479374696315461</v>
       </c>
       <c r="T16">
-        <v>0.0004492474943426427</v>
+        <v>0.0005479374696315462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="H17">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="I17">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="J17">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N17">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O17">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P17">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q17">
-        <v>79.63523736221605</v>
+        <v>105.4131088643628</v>
       </c>
       <c r="R17">
-        <v>79.63523736221605</v>
+        <v>948.7179797792651</v>
       </c>
       <c r="S17">
-        <v>0.01852352810894534</v>
+        <v>0.02264123082618336</v>
       </c>
       <c r="T17">
-        <v>0.01852352810894534</v>
+        <v>0.02264123082618337</v>
       </c>
     </row>
   </sheetData>
